--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>83.84</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.39</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>67.47</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>20.39</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>54.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.15</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000845</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.90</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>000845</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>国投瑞银信息消费灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.21</v>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.52</v>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2679,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2695,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2711,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.42</v>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="5">
@@ -2695,14 +2864,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -2711,14 +2880,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="7">
@@ -2727,13 +2896,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,513 +457,449 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4847</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5795</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2601</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2601</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+      <c r="D7" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2151</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1353</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005520</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -990,7 +926,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1020,36 +956,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5427</t>
+          <t>1.8868</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1058,36 +994,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>009135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>广发恒隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>24.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4964</t>
+          <t>0.1672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1096,36 +1032,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>010036</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>广发恒通六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.1655</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1134,36 +1070,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>001189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>广发聚宝混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1172,36 +1108,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>007848</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>广发聚宝混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0453</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1210,36 +1146,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>009136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>广发恒隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1248,36 +1184,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070017</t>
+          <t>002232</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实量化阿尔法混合</t>
+          <t>华夏新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1286,32 +1222,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000845</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1324,36 +1260,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>002231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>华夏新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1362,36 +1298,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>010038</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>广发恒通六个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1335,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1911,139 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7025</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2070,7 +2006,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2100,36 +2036,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8868</t>
+          <t>0.5427</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2138,36 +2074,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009135</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发恒隆一年持有期混合A</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.96</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1672</t>
+          <t>0.4964</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2176,36 +2112,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010036</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发恒通六个月持有期混合A</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.61</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>65.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1655</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2214,36 +2150,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001189</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚宝混合A</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.0845</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2252,36 +2188,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007848</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚宝混合C</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2290,36 +2226,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009136</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发恒隆一年持有期混合C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2328,36 +2264,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002232</t>
+          <t>070017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏新趋势灵活配置混合C</t>
+          <t>嘉实量化阿尔法混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2366,32 +2302,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>000845</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国投瑞银信息消费灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0241</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2404,36 +2340,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002231</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏新趋势灵活配置混合A</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2442,336 +2378,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010038</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发恒通六个月持有期混合C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009956</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发恒誉混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009957</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发恒誉混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011383</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富安达医药创新混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014470</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2785,144 +2421,508 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.9</v>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -767,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -899,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1467,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1979,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2415,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002675-东诚药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.42</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -616,7 +633,1637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +3549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,7 +3681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2546,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2980,516 +4627,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4847</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5795</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2601</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2601</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2151</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1353</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005520</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>